--- a/doc/file storge workflow.xlsx
+++ b/doc/file storge workflow.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="29">
   <si>
     <t>Note:</t>
   </si>
@@ -36,22 +36,85 @@
     <t>- Minio service: implemt with nodejs</t>
   </si>
   <si>
-    <t>- Download</t>
-  </si>
-  <si>
     <t>List function</t>
   </si>
   <si>
     <t>- Upload file</t>
   </si>
   <si>
-    <t>- Upload mutiple file</t>
-  </si>
-  <si>
-    <t>- Download mutiple file</t>
-  </si>
-  <si>
-    <t>- Public file access</t>
+    <t>- Get a file</t>
+  </si>
+  <si>
+    <t>Method</t>
+  </si>
+  <si>
+    <t>GET</t>
+  </si>
+  <si>
+    <t>End point</t>
+  </si>
+  <si>
+    <t>POST</t>
+  </si>
+  <si>
+    <t>- Upload content</t>
+  </si>
+  <si>
+    <t>- Upload multiple file</t>
+  </si>
+  <si>
+    <t>/api/files/uploads</t>
+  </si>
+  <si>
+    <t>/api/files/upload</t>
+  </si>
+  <si>
+    <t>- Delete file</t>
+  </si>
+  <si>
+    <t>DELETE</t>
+  </si>
+  <si>
+    <t>/api/files/get/[bucket-name]/[file-name]</t>
+  </si>
+  <si>
+    <t>- Public file access url</t>
+  </si>
+  <si>
+    <t>/api/files/public/[buket-name]/[files-name]</t>
+  </si>
+  <si>
+    <t>Response</t>
+  </si>
+  <si>
+    <t>- stream</t>
+  </si>
+  <si>
+    <t>- status code
+- file info</t>
+  </si>
+  <si>
+    <t>- status code</t>
+  </si>
+  <si>
+    <t>/api/files/upload/[file-name]</t>
+  </si>
+  <si>
+    <t>/api/files/delete/[bucket-name]/[file-name]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- status code
+- public url </t>
+  </si>
+  <si>
+    <t>Note</t>
+  </si>
+  <si>
+    <t>- phải public api thì bên ngoài mới xài dc api này</t>
+  </si>
+  <si>
+    <t>- status code
+- files info</t>
   </si>
 </sst>
 </file>
@@ -83,7 +146,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -91,16 +154,40 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1091,48 +1178,142 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:B7"/>
+  <dimension ref="B2:F10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="27.85546875" customWidth="1"/>
+    <col min="2" max="2" width="30.85546875" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" customWidth="1"/>
+    <col min="4" max="4" width="42.42578125" customWidth="1"/>
+    <col min="5" max="5" width="45.42578125" customWidth="1"/>
+    <col min="6" max="6" width="27" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B2" s="3" t="s">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="5"/>
+    </row>
+    <row r="4" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B4" s="5" t="s">
         <v>4</v>
       </c>
+      <c r="C4" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="5"/>
     </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B3" s="2" t="s">
-        <v>5</v>
-      </c>
+    <row r="5" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" s="5"/>
     </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B4" s="2" t="s">
-        <v>6</v>
-      </c>
+    <row r="6" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B6" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="5"/>
     </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B5" s="2" t="s">
-        <v>3</v>
-      </c>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B7" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="5"/>
     </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B6" s="2" t="s">
+    <row r="8" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B8" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="6" t="s">
         <v>7</v>
       </c>
+      <c r="D8" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>27</v>
+      </c>
     </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B7" s="2" t="s">
-        <v>8</v>
-      </c>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>